--- a/openWeb/Produtos Novo.xlsx
+++ b/openWeb/Produtos Novo.xlsx
@@ -462,16 +462,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>0.960135</v>
+        <v>0.94955</v>
       </c>
       <c r="E2">
-        <v>960.12539865</v>
+        <v>949.5405045</v>
       </c>
       <c r="F2">
         <v>1.4</v>
       </c>
       <c r="G2">
-        <v>1344.17555811</v>
+        <v>1329.3567063</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -485,16 +485,16 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>1.04155</v>
+        <v>1.05304</v>
       </c>
       <c r="E3">
-        <v>4686.974999999999</v>
+        <v>4738.68</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>9373.949999999999</v>
+        <v>9477.360000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -508,16 +508,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>0.960135</v>
+        <v>0.94955</v>
       </c>
       <c r="E4">
-        <v>864.1118986499999</v>
+        <v>854.5855045000001</v>
       </c>
       <c r="F4">
         <v>1.7</v>
       </c>
       <c r="G4">
-        <v>1468.990227705</v>
+        <v>1452.79535765</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>0.960135</v>
+        <v>0.94955</v>
       </c>
       <c r="E5">
-        <v>767.147865</v>
+        <v>758.6904500000001</v>
       </c>
       <c r="F5">
         <v>1.7</v>
       </c>
       <c r="G5">
-        <v>1304.1513705</v>
+        <v>1289.773765</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,16 +554,16 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>1.04155</v>
+        <v>1.05304</v>
       </c>
       <c r="E6">
-        <v>3124.65</v>
+        <v>3159.12</v>
       </c>
       <c r="F6">
         <v>1.9</v>
       </c>
       <c r="G6">
-        <v>5936.835</v>
+        <v>6002.328</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,16 +577,16 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>0.960135</v>
+        <v>0.94955</v>
       </c>
       <c r="E7">
-        <v>461.3256648</v>
+        <v>456.239784</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>922.6513296000001</v>
+        <v>912.4795680000001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -600,16 +600,16 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>297.92</v>
+        <v>307.91</v>
       </c>
       <c r="E8">
-        <v>5958.400000000001</v>
+        <v>6158.200000000001</v>
       </c>
       <c r="F8">
         <v>1.15</v>
       </c>
       <c r="G8">
-        <v>6852.16</v>
+        <v>7081.93</v>
       </c>
     </row>
   </sheetData>
